--- a/IPC2024_base2010/imputacion/indprod_1_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_1_2024.xlsx
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>94.93565576210666</v>
+        <v>98.63286827819455</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>103.8121088747725</v>
+        <v>92.09720447039862</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>110.2340361548296</v>
+        <v>105.4084912442549</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>195.1840192005957</v>
+        <v>196.7148742531493</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>132.3058633667388</v>
+        <v>124.4508713669622</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.9605538093506</v>
+        <v>113.8240967188308</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>132.7985251888791</v>
+        <v>130.4266140815348</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>124.0933067674769</v>
+        <v>128.9260466191205</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>93.69463441493011</v>
+        <v>83.12145853717468</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>107.759989574506</v>
+        <v>103.042747174668</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>164.104891</v>
+        <v>165.3919881843137</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>132.5288037007092</v>
+        <v>123.6301037980877</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.2157620554495</v>
+        <v>116.1005</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>135.073625096394</v>
+        <v>132.6610784870117</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>71.70568107793916</v>
+        <v>74.4982160789117</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>106.5165652757185</v>
+        <v>94.49647057566253</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>107.6305590706832</v>
+        <v>102.9189825498312</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>106.39188</v>
+        <v>107.2263261176471</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>129.4990243828662</v>
+        <v>125.246863012776</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.6021499896183</v>
+        <v>102.456775</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>113.0354475872659</v>
+        <v>111.0165243102601</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>74.2796494963065</v>
+        <v>77.17242616281564</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>112.8112046142869</v>
+        <v>100.080777575252</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>130.7858484957602</v>
+        <v>125.0606386821825</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>81.62257971685678</v>
+        <v>82.26275681267526</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>120.8612234131959</v>
+        <v>114.9491435260857</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.5408060219988</v>
+        <v>106.3973549957902</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>135.8941470760828</v>
+        <v>133.4669451443264</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>90.35846862492794</v>
+        <v>93.87742531672933</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>100</v>
+        <v>100.7843137254902</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>132.3613471536318</v>
+        <v>126.0279513465248</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.973125381922</v>
+        <v>128.804858</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>134.9831546649398</v>
+        <v>132.5722239456508</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>109.1935980977932</v>
+        <v>113.4460776780203</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>111.900150068723</v>
+        <v>99.27253297184363</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>86.60250000000001</v>
+        <v>87.28173529411765</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>149.2856518469453</v>
+        <v>136.8219612538095</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.2862626710348</v>
+        <v>113.138971</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>130.5535239853315</v>
+        <v>128.2217107878331</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>57.51177936287055</v>
+        <v>59.75154132349486</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>107.2538560524409</v>
+        <v>95.15056016264752</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>130.9175144863273</v>
+        <v>125.1865409343178</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>320.4997651145632</v>
+        <v>323.0134887625206</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>135.7270498148624</v>
+        <v>129.6856499954232</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>115.2365127743607</v>
+        <v>115.076457865799</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>115.0608676633074</v>
+        <v>113.0057684094331</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>58.45957656038731</v>
+        <v>60.73624991782287</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>99.71532397354568</v>
+        <v>88.46273021870354</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>99.66048522390581</v>
+        <v>95.29780229916783</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>187.5</v>
+        <v>188.9705882352941</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>113.4480777511115</v>
+        <v>111.7955749560738</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.7218984110108</v>
+        <v>100.5886521851069</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>130.4769612940217</v>
+        <v>128.1465155808208</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>65.69019853908075</v>
+        <v>68.24846415881358</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>110.9400337997021</v>
+        <v>98.42076312243198</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>116.8228979717258</v>
+        <v>111.7089226478589</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>100.1489506493507</v>
+        <v>100.9344326152279</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>114.5632007650729</v>
+        <v>112.4471989254152</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.6166572580548</v>
+        <v>112.460662</v>
       </c>
     </row>
     <row r="2476" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>105.220861930943</v>
+        <v>103.3415147711506</v>
       </c>
     </row>
     <row r="2510" spans="1:4">
